--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_Fiets.xlsx
@@ -7460,13 +7460,13 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>6793.46752536198</v>
+        <v>6793.467525361981</v>
       </c>
       <c r="C418">
         <v>14668.19457239523</v>
       </c>
       <c r="D418">
-        <v>41559.97336366143</v>
+        <v>41559.97336366144</v>
       </c>
       <c r="E418">
         <v>63215.48507867389</v>
